--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
